--- a/output/1Y_P68_KFSDIV.xlsx
+++ b/output/1Y_P68_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.6955</v>
       </c>
       <c r="C2" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D2" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.3398</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E3" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="F3" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="H3" s="1">
-        <v>9740.279699999999</v>
+        <v>9701.375099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9740.279699999999</v>
+        <v>9701.375099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.026</v>
+        <v>-0.0299</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>12.8469</v>
       </c>
       <c r="C4" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D4" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E4" s="1">
-        <v>1479.8033</v>
+        <v>1476.848</v>
       </c>
       <c r="F4" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="H4" s="1">
-        <v>19010.8846</v>
+        <v>18934.9629</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19010.8846</v>
+        <v>18934.9629</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.5153</v>
+        <v>13.5424</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0369</v>
+        <v>-0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>13.129</v>
       </c>
       <c r="C5" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D5" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E5" s="1">
-        <v>2258.2012</v>
+        <v>2253.6918</v>
       </c>
       <c r="F5" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="H5" s="1">
-        <v>29647.9232</v>
+        <v>29529.4474</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29647.9232</v>
+        <v>29529.4474</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.2849</v>
+        <v>13.3115</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.022</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>12.716</v>
       </c>
       <c r="C6" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D6" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E6" s="1">
-        <v>3019.8738</v>
+        <v>3013.8417</v>
       </c>
       <c r="F6" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="H6" s="1">
-        <v>38400.7153</v>
+        <v>38247.4594</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38400.7153</v>
+        <v>38247.4594</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2456</v>
+        <v>13.2721</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>609.7143</v>
+        <v>608.4968</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9390.2857</v>
+        <v>-9391.503199999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0315</v>
+        <v>-0.0324</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>12.4613</v>
       </c>
       <c r="C7" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D7" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E7" s="1">
-        <v>3806.2846</v>
+        <v>3798.6786</v>
       </c>
       <c r="F7" s="1">
-        <v>809.4743</v>
+        <v>807.8396</v>
       </c>
       <c r="H7" s="1">
-        <v>47431.2546</v>
+        <v>47241.8871</v>
       </c>
       <c r="I7" s="1">
-        <v>609.7143</v>
+        <v>608.4968</v>
       </c>
       <c r="J7" s="1">
-        <v>48040.9689</v>
+        <v>47850.3838</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1362</v>
+        <v>13.1625</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10087.102</v>
+        <v>-10086.9281</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0074</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>12.6545</v>
       </c>
       <c r="C8" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D8" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E8" s="1">
-        <v>4615.7589</v>
+        <v>4606.5183</v>
       </c>
       <c r="F8" s="1">
-        <v>797.1158</v>
+        <v>795.5053</v>
       </c>
       <c r="H8" s="1">
-        <v>58410.1213</v>
+        <v>58176.6407</v>
       </c>
       <c r="I8" s="1">
-        <v>522.6123</v>
+        <v>521.5687</v>
       </c>
       <c r="J8" s="1">
-        <v>58932.7335</v>
+        <v>58698.2094</v>
       </c>
       <c r="K8" s="1">
-        <v>60087.102</v>
+        <v>60086.9281</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0178</v>
+        <v>13.0439</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10087.102</v>
+        <v>-10086.9281</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0154</v>
+        <v>0.0147</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>12.2345</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E9" s="1">
-        <v>5412.8747</v>
+        <v>5402.0236</v>
       </c>
       <c r="F9" s="1">
-        <v>824.4801</v>
+        <v>822.8182</v>
       </c>
       <c r="H9" s="1">
-        <v>66223.8159</v>
+        <v>65958.7084</v>
       </c>
       <c r="I9" s="1">
-        <v>435.5102</v>
+        <v>434.6406</v>
       </c>
       <c r="J9" s="1">
-        <v>66659.32610000001</v>
+        <v>66393.3489</v>
       </c>
       <c r="K9" s="1">
-        <v>70174.2041</v>
+        <v>70173.85619999999</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9643</v>
+        <v>12.9903</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1246.2549</v>
+        <v>1243.7599</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8840.847100000001</v>
+        <v>-8843.1682</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.033</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>12.1636</v>
       </c>
       <c r="C10" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D10" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E10" s="1">
-        <v>6237.3549</v>
+        <v>6224.8418</v>
       </c>
       <c r="F10" s="1">
-        <v>854.9003</v>
+        <v>853.1233999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>75868.68949999999</v>
+        <v>75565.2221</v>
       </c>
       <c r="I10" s="1">
-        <v>1594.6631</v>
+        <v>1591.4724</v>
       </c>
       <c r="J10" s="1">
-        <v>77463.3526</v>
+        <v>77156.6945</v>
       </c>
       <c r="K10" s="1">
-        <v>80261.3061</v>
+        <v>80260.7843</v>
       </c>
       <c r="L10" s="1">
-        <v>12.8678</v>
+        <v>12.8936</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10398.6658</v>
+        <v>-10397.8681</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>11.8145</v>
       </c>
       <c r="C11" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D11" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E11" s="1">
-        <v>7092.2552</v>
+        <v>7077.9652</v>
       </c>
       <c r="F11" s="1">
-        <v>880.1613</v>
+        <v>878.3318</v>
       </c>
       <c r="H11" s="1">
-        <v>83791.44899999999</v>
+        <v>83455.58</v>
       </c>
       <c r="I11" s="1">
-        <v>1195.9973</v>
+        <v>1193.6043</v>
       </c>
       <c r="J11" s="1">
-        <v>84987.4463</v>
+        <v>84649.18429999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90659.9719</v>
+        <v>90658.65240000001</v>
       </c>
       <c r="L11" s="1">
-        <v>12.783</v>
+        <v>12.8086</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10398.6658</v>
+        <v>-10397.8681</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0283</v>
+        <v>-0.0288</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>11.2352</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E12" s="1">
-        <v>7972.4165</v>
+        <v>7956.2971</v>
       </c>
       <c r="F12" s="1">
-        <v>925.5352</v>
+        <v>923.6228</v>
       </c>
       <c r="H12" s="1">
-        <v>89571.6939</v>
+        <v>89211.572</v>
       </c>
       <c r="I12" s="1">
-        <v>797.3315</v>
+        <v>795.7362000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>90369.0254</v>
+        <v>90007.3082</v>
       </c>
       <c r="K12" s="1">
-        <v>101058.6377</v>
+        <v>101056.5205</v>
       </c>
       <c r="L12" s="1">
-        <v>12.676</v>
+        <v>12.7015</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1914.9089</v>
+        <v>1911.0506</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8483.7569</v>
+        <v>-8486.817499999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0486</v>
+        <v>-0.049</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.8241</v>
       </c>
       <c r="C13" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D13" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E13" s="1">
-        <v>8897.9517</v>
+        <v>8879.9198</v>
       </c>
       <c r="F13" s="1">
-        <v>1137.6073</v>
+        <v>1134.9019</v>
       </c>
       <c r="H13" s="1">
-        <v>96312.3192</v>
+        <v>95924.446</v>
       </c>
       <c r="I13" s="1">
-        <v>2313.5747</v>
+        <v>2308.9187</v>
       </c>
       <c r="J13" s="1">
-        <v>98625.89380000001</v>
+        <v>98233.36470000001</v>
       </c>
       <c r="K13" s="1">
-        <v>111457.3035</v>
+        <v>111454.3886</v>
       </c>
       <c r="L13" s="1">
-        <v>12.5262</v>
+        <v>12.5513</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12313.5747</v>
+        <v>-12308.9187</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0174</v>
+        <v>-0.0177</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>11.2543</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E14" s="1">
-        <v>10035.559</v>
+        <v>10014.8217</v>
       </c>
       <c r="F14" s="1">
-        <v>-10035.559</v>
+        <v>-10014.8217</v>
       </c>
       <c r="H14" s="1">
-        <v>112943.1913</v>
+        <v>112484.4744</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>112943.1913</v>
+        <v>112484.4744</v>
       </c>
       <c r="K14" s="1">
-        <v>123770.8781</v>
+        <v>123763.3073</v>
       </c>
       <c r="L14" s="1">
-        <v>12.3332</v>
+        <v>12.358</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112943.1913</v>
+        <v>112484.4744</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0397</v>
+        <v>0.0393</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.6955</v>
       </c>
       <c r="C2" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D2" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.3398</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E3" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="F3" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9740.279699999999</v>
+        <v>9701.375099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9740.279699999999</v>
+        <v>9701.375099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.026</v>
+        <v>-0.0299</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>12.8469</v>
       </c>
       <c r="C4" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D4" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E4" s="1">
-        <v>1479.8033</v>
+        <v>1476.848</v>
       </c>
       <c r="F4" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19010.8846</v>
+        <v>18934.9629</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19010.8846</v>
+        <v>18934.9629</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.5153</v>
+        <v>13.5424</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0369</v>
+        <v>-0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>13.129</v>
       </c>
       <c r="C5" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D5" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E5" s="1">
-        <v>2258.2012</v>
+        <v>2253.6918</v>
       </c>
       <c r="F5" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29647.9232</v>
+        <v>29529.4474</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29647.9232</v>
+        <v>29529.4474</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.2849</v>
+        <v>13.3115</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.022</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>12.716</v>
       </c>
       <c r="C6" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D6" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E6" s="1">
-        <v>3019.8738</v>
+        <v>3013.8417</v>
       </c>
       <c r="F6" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38400.7153</v>
+        <v>38247.4594</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38400.7153</v>
+        <v>38247.4594</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2456</v>
+        <v>13.2721</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>609.7143</v>
+        <v>608.4968</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9390.2857</v>
+        <v>-9391.503199999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0315</v>
+        <v>-0.0324</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>12.4613</v>
       </c>
       <c r="C7" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D7" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E7" s="1">
-        <v>3806.2846</v>
+        <v>3798.6786</v>
       </c>
       <c r="F7" s="1">
-        <v>851.4131</v>
+        <v>849.6109</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>47431.2546</v>
+        <v>47241.8871</v>
       </c>
       <c r="I7" s="1">
-        <v>609.7143</v>
+        <v>608.4968</v>
       </c>
       <c r="J7" s="1">
-        <v>48040.9689</v>
+        <v>47850.3838</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1362</v>
+        <v>13.1625</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10609.7143</v>
+        <v>-10608.4968</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0074</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>12.6545</v>
       </c>
       <c r="C8" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D8" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E8" s="1">
-        <v>4657.6977</v>
+        <v>4648.2896</v>
       </c>
       <c r="F8" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58940.8361</v>
+        <v>58704.1785</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58940.8361</v>
+        <v>58704.1785</v>
       </c>
       <c r="K8" s="1">
-        <v>60609.7143</v>
+        <v>60608.4968</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0128</v>
+        <v>13.0389</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0155</v>
+        <v>0.0148</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>12.2345</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E9" s="1">
-        <v>5447.9305</v>
+        <v>5436.9393</v>
       </c>
       <c r="F9" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>66652.7053</v>
+        <v>66385.02899999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66652.7053</v>
+        <v>66385.02899999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70609.71430000001</v>
+        <v>70608.49679999999</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9608</v>
+        <v>12.9868</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1257.5784</v>
+        <v>1255.0382</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8742.4216</v>
+        <v>-8744.961799999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0332</v>
+        <v>-0.0338</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>12.1636</v>
       </c>
       <c r="C10" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D10" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E10" s="1">
-        <v>6265.2912</v>
+        <v>6252.6665</v>
       </c>
       <c r="F10" s="1">
-        <v>925.5137</v>
+        <v>923.4524</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>76208.49619999999</v>
+        <v>75902.9948</v>
       </c>
       <c r="I10" s="1">
-        <v>1257.5784</v>
+        <v>1255.0382</v>
       </c>
       <c r="J10" s="1">
-        <v>77466.07460000001</v>
+        <v>77158.033</v>
       </c>
       <c r="K10" s="1">
-        <v>80609.71430000001</v>
+        <v>80608.49679999999</v>
       </c>
       <c r="L10" s="1">
-        <v>12.8661</v>
+        <v>12.8919</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11257.5784</v>
+        <v>-11255.0382</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0106</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>11.8145</v>
       </c>
       <c r="C11" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D11" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E11" s="1">
-        <v>7190.8049</v>
+        <v>7176.119</v>
       </c>
       <c r="F11" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>84955.76459999999</v>
+        <v>84612.901</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>84955.76459999999</v>
+        <v>84612.901</v>
       </c>
       <c r="K11" s="1">
-        <v>91867.29270000001</v>
+        <v>91863.535</v>
       </c>
       <c r="L11" s="1">
-        <v>12.7757</v>
+        <v>12.8013</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0287</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>11.2352</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E12" s="1">
-        <v>8037.2224</v>
+        <v>8020.842</v>
       </c>
       <c r="F12" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>90299.80160000001</v>
+        <v>89935.2948</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>90299.80160000001</v>
+        <v>89935.2948</v>
       </c>
       <c r="K12" s="1">
-        <v>101867.2927</v>
+        <v>101863.535</v>
       </c>
       <c r="L12" s="1">
-        <v>12.6744</v>
+        <v>12.6999</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1941.5173</v>
+        <v>1937.5521</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8058.4827</v>
+        <v>-8062.4479</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.049</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.8241</v>
       </c>
       <c r="C13" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D13" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E13" s="1">
-        <v>8927.274299999999</v>
+        <v>8909.1229</v>
       </c>
       <c r="F13" s="1">
-        <v>1103.2342</v>
+        <v>1100.6613</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>96629.7101</v>
+        <v>96239.909</v>
       </c>
       <c r="I13" s="1">
-        <v>1941.5173</v>
+        <v>1937.5521</v>
       </c>
       <c r="J13" s="1">
-        <v>98571.22749999999</v>
+        <v>98177.46120000001</v>
       </c>
       <c r="K13" s="1">
-        <v>111867.2927</v>
+        <v>111863.535</v>
       </c>
       <c r="L13" s="1">
-        <v>12.531</v>
+        <v>12.5561</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11941.5173</v>
+        <v>-11937.5521</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0172</v>
+        <v>-0.0176</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>11.2543</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E14" s="1">
-        <v>10030.5085</v>
+        <v>10009.7842</v>
       </c>
       <c r="F14" s="1">
-        <v>-10030.5085</v>
+        <v>-10009.7842</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112886.3522</v>
+        <v>112427.8938</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>112886.3522</v>
+        <v>112427.8938</v>
       </c>
       <c r="K14" s="1">
-        <v>123808.81</v>
+        <v>123801.0871</v>
       </c>
       <c r="L14" s="1">
-        <v>12.3432</v>
+        <v>12.368</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112886.3522</v>
+        <v>112427.8938</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0397</v>
+        <v>0.0393</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.6955</v>
       </c>
       <c r="C2" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D2" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.3398</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E3" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="F3" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9740.279699999999</v>
+        <v>9701.375099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9740.279699999999</v>
+        <v>9701.375099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.026</v>
+        <v>-0.0299</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>12.8469</v>
       </c>
       <c r="C4" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D4" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E4" s="1">
-        <v>1479.8033</v>
+        <v>1476.848</v>
       </c>
       <c r="F4" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19010.8846</v>
+        <v>18934.9629</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19010.8846</v>
+        <v>18934.9629</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.5153</v>
+        <v>13.5424</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0369</v>
+        <v>-0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>13.129</v>
       </c>
       <c r="C5" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D5" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E5" s="1">
-        <v>2258.2012</v>
+        <v>2253.6918</v>
       </c>
       <c r="F5" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29647.9232</v>
+        <v>29529.4474</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29647.9232</v>
+        <v>29529.4474</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.2849</v>
+        <v>13.3115</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.022</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>12.716</v>
       </c>
       <c r="C6" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D6" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E6" s="1">
-        <v>3019.8738</v>
+        <v>3013.8417</v>
       </c>
       <c r="F6" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>38400.7153</v>
+        <v>38247.4594</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38400.7153</v>
+        <v>38247.4594</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2456</v>
+        <v>13.2721</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>609.7143</v>
+        <v>608.4968</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9390.2857</v>
+        <v>-9391.503199999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0315</v>
+        <v>-0.0324</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>12.4613</v>
       </c>
       <c r="C7" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D7" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E7" s="1">
-        <v>3806.2846</v>
+        <v>3798.6786</v>
       </c>
       <c r="F7" s="1">
-        <v>851.4131</v>
+        <v>849.6109</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>47431.2546</v>
+        <v>47241.8871</v>
       </c>
       <c r="I7" s="1">
-        <v>609.7143</v>
+        <v>608.4968</v>
       </c>
       <c r="J7" s="1">
-        <v>48040.9689</v>
+        <v>47850.3838</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1362</v>
+        <v>13.1625</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10609.7143</v>
+        <v>-10608.4968</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0074</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>12.6545</v>
       </c>
       <c r="C8" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D8" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E8" s="1">
-        <v>4657.6977</v>
+        <v>4648.2896</v>
       </c>
       <c r="F8" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>58940.8361</v>
+        <v>58704.1785</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58940.8361</v>
+        <v>58704.1785</v>
       </c>
       <c r="K8" s="1">
-        <v>60609.7143</v>
+        <v>60608.4968</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0128</v>
+        <v>13.0389</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0155</v>
+        <v>0.0148</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>12.2345</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E9" s="1">
-        <v>5447.9305</v>
+        <v>5436.9393</v>
       </c>
       <c r="F9" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>66652.7053</v>
+        <v>66385.02899999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66652.7053</v>
+        <v>66385.02899999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70609.71430000001</v>
+        <v>70608.49679999999</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9608</v>
+        <v>12.9868</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1257.5784</v>
+        <v>1255.0382</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8742.4216</v>
+        <v>-8744.961799999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0332</v>
+        <v>-0.0338</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>12.1636</v>
       </c>
       <c r="C10" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D10" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E10" s="1">
-        <v>6265.2912</v>
+        <v>6252.6665</v>
       </c>
       <c r="F10" s="1">
-        <v>925.5137</v>
+        <v>923.4524</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>76208.49619999999</v>
+        <v>75902.9948</v>
       </c>
       <c r="I10" s="1">
-        <v>1257.5784</v>
+        <v>1255.0382</v>
       </c>
       <c r="J10" s="1">
-        <v>77466.07460000001</v>
+        <v>77158.033</v>
       </c>
       <c r="K10" s="1">
-        <v>80609.71430000001</v>
+        <v>80608.49679999999</v>
       </c>
       <c r="L10" s="1">
-        <v>12.8661</v>
+        <v>12.8919</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11257.5784</v>
+        <v>-11255.0382</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0106</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>11.8145</v>
       </c>
       <c r="C11" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D11" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E11" s="1">
-        <v>7190.8049</v>
+        <v>7176.119</v>
       </c>
       <c r="F11" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>84955.76459999999</v>
+        <v>84612.901</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>84955.76459999999</v>
+        <v>84612.901</v>
       </c>
       <c r="K11" s="1">
-        <v>91867.29270000001</v>
+        <v>91863.535</v>
       </c>
       <c r="L11" s="1">
-        <v>12.7757</v>
+        <v>12.8013</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0287</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>11.2352</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E12" s="1">
-        <v>8037.2224</v>
+        <v>8020.842</v>
       </c>
       <c r="F12" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>90299.80160000001</v>
+        <v>89935.2948</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>90299.80160000001</v>
+        <v>89935.2948</v>
       </c>
       <c r="K12" s="1">
-        <v>101867.2927</v>
+        <v>101863.535</v>
       </c>
       <c r="L12" s="1">
-        <v>12.6744</v>
+        <v>12.6999</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1941.5173</v>
+        <v>1937.5521</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8058.4827</v>
+        <v>-8062.4479</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.049</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.8241</v>
       </c>
       <c r="C13" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D13" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E13" s="1">
-        <v>8927.274299999999</v>
+        <v>8909.1229</v>
       </c>
       <c r="F13" s="1">
-        <v>1103.2342</v>
+        <v>1100.6613</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>96629.7101</v>
+        <v>96239.909</v>
       </c>
       <c r="I13" s="1">
-        <v>1941.5173</v>
+        <v>1937.5521</v>
       </c>
       <c r="J13" s="1">
-        <v>98571.22749999999</v>
+        <v>98177.46120000001</v>
       </c>
       <c r="K13" s="1">
-        <v>111867.2927</v>
+        <v>111863.535</v>
       </c>
       <c r="L13" s="1">
-        <v>12.531</v>
+        <v>12.5561</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11941.5173</v>
+        <v>-11937.5521</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0172</v>
+        <v>-0.0176</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>11.2543</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E14" s="1">
-        <v>10030.5085</v>
+        <v>10009.7842</v>
       </c>
       <c r="F14" s="1">
-        <v>-10030.5085</v>
+        <v>-10009.7842</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112886.3522</v>
+        <v>112427.8938</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>112886.3522</v>
+        <v>112427.8938</v>
       </c>
       <c r="K14" s="1">
-        <v>123808.81</v>
+        <v>123801.0871</v>
       </c>
       <c r="L14" s="1">
-        <v>12.3432</v>
+        <v>12.368</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112886.3522</v>
+        <v>112427.8938</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0397</v>
+        <v>0.0393</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.6955</v>
       </c>
       <c r="C2" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D2" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.3398</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E3" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="F3" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9740.279699999999</v>
+        <v>9701.375099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9740.279699999999</v>
+        <v>9701.375099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.026</v>
+        <v>-0.0299</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>12.8469</v>
       </c>
       <c r="C4" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D4" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E4" s="1">
-        <v>1479.8033</v>
+        <v>1476.848</v>
       </c>
       <c r="F4" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19010.8846</v>
+        <v>18934.9629</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19010.8846</v>
+        <v>18934.9629</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.5153</v>
+        <v>13.5424</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0369</v>
+        <v>-0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>13.129</v>
       </c>
       <c r="C5" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D5" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E5" s="1">
-        <v>2258.2012</v>
+        <v>2253.6918</v>
       </c>
       <c r="F5" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29647.9232</v>
+        <v>29529.4474</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29647.9232</v>
+        <v>29529.4474</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.2849</v>
+        <v>13.3115</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.022</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>12.716</v>
       </c>
       <c r="C6" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D6" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E6" s="1">
-        <v>3019.8738</v>
+        <v>3013.8417</v>
       </c>
       <c r="F6" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>38400.7153</v>
+        <v>38247.4594</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38400.7153</v>
+        <v>38247.4594</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2456</v>
+        <v>13.2721</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>609.7143</v>
+        <v>608.4968</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9390.2857</v>
+        <v>-9391.503199999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0315</v>
+        <v>-0.0324</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>12.4613</v>
       </c>
       <c r="C7" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D7" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E7" s="1">
-        <v>3806.2846</v>
+        <v>3798.6786</v>
       </c>
       <c r="F7" s="1">
-        <v>851.4131</v>
+        <v>849.6109</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>47431.2546</v>
+        <v>47241.8871</v>
       </c>
       <c r="I7" s="1">
-        <v>609.7143</v>
+        <v>608.4968</v>
       </c>
       <c r="J7" s="1">
-        <v>48040.9689</v>
+        <v>47850.3838</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1362</v>
+        <v>13.1625</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10609.7143</v>
+        <v>-10608.4968</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0074</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>12.6545</v>
       </c>
       <c r="C8" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D8" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E8" s="1">
-        <v>4657.6977</v>
+        <v>4648.2896</v>
       </c>
       <c r="F8" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>58940.8361</v>
+        <v>58704.1785</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58940.8361</v>
+        <v>58704.1785</v>
       </c>
       <c r="K8" s="1">
-        <v>60609.7143</v>
+        <v>60608.4968</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0128</v>
+        <v>13.0389</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0155</v>
+        <v>0.0148</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>12.2345</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E9" s="1">
-        <v>5447.9305</v>
+        <v>5436.9393</v>
       </c>
       <c r="F9" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>66652.7053</v>
+        <v>66385.02899999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66652.7053</v>
+        <v>66385.02899999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70609.71430000001</v>
+        <v>70608.49679999999</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9608</v>
+        <v>12.9868</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1257.5784</v>
+        <v>1255.0382</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8742.4216</v>
+        <v>-8744.961799999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0332</v>
+        <v>-0.0338</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>12.1636</v>
       </c>
       <c r="C10" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D10" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E10" s="1">
-        <v>6265.2912</v>
+        <v>6252.6665</v>
       </c>
       <c r="F10" s="1">
-        <v>925.5137</v>
+        <v>923.4524</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>76208.49619999999</v>
+        <v>75902.9948</v>
       </c>
       <c r="I10" s="1">
-        <v>1257.5784</v>
+        <v>1255.0382</v>
       </c>
       <c r="J10" s="1">
-        <v>77466.07460000001</v>
+        <v>77158.033</v>
       </c>
       <c r="K10" s="1">
-        <v>80609.71430000001</v>
+        <v>80608.49679999999</v>
       </c>
       <c r="L10" s="1">
-        <v>12.8661</v>
+        <v>12.8919</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11257.5784</v>
+        <v>-11255.0382</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0106</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>11.8145</v>
       </c>
       <c r="C11" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D11" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E11" s="1">
-        <v>7190.8049</v>
+        <v>7176.119</v>
       </c>
       <c r="F11" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>84955.76459999999</v>
+        <v>84612.901</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>84955.76459999999</v>
+        <v>84612.901</v>
       </c>
       <c r="K11" s="1">
-        <v>91867.29270000001</v>
+        <v>91863.535</v>
       </c>
       <c r="L11" s="1">
-        <v>12.7757</v>
+        <v>12.8013</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0287</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>11.2352</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E12" s="1">
-        <v>8037.2224</v>
+        <v>8020.842</v>
       </c>
       <c r="F12" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>90299.80160000001</v>
+        <v>89935.2948</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>90299.80160000001</v>
+        <v>89935.2948</v>
       </c>
       <c r="K12" s="1">
-        <v>101867.2927</v>
+        <v>101863.535</v>
       </c>
       <c r="L12" s="1">
-        <v>12.6744</v>
+        <v>12.6999</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1941.5173</v>
+        <v>1937.5521</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8058.4827</v>
+        <v>-8062.4479</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.049</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.8241</v>
       </c>
       <c r="C13" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D13" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E13" s="1">
-        <v>8927.274299999999</v>
+        <v>8909.1229</v>
       </c>
       <c r="F13" s="1">
-        <v>1103.2342</v>
+        <v>1100.6613</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>96629.7101</v>
+        <v>96239.909</v>
       </c>
       <c r="I13" s="1">
-        <v>1941.5173</v>
+        <v>1937.5521</v>
       </c>
       <c r="J13" s="1">
-        <v>98571.22749999999</v>
+        <v>98177.46120000001</v>
       </c>
       <c r="K13" s="1">
-        <v>111867.2927</v>
+        <v>111863.535</v>
       </c>
       <c r="L13" s="1">
-        <v>12.531</v>
+        <v>12.5561</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11941.5173</v>
+        <v>-11937.5521</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0172</v>
+        <v>-0.0176</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>11.2543</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E14" s="1">
-        <v>10030.5085</v>
+        <v>10009.7842</v>
       </c>
       <c r="F14" s="1">
-        <v>-10030.5085</v>
+        <v>-10009.7842</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112886.3522</v>
+        <v>112427.8938</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>112886.3522</v>
+        <v>112427.8938</v>
       </c>
       <c r="K14" s="1">
-        <v>123808.81</v>
+        <v>123801.0871</v>
       </c>
       <c r="L14" s="1">
-        <v>12.3432</v>
+        <v>12.368</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112886.3522</v>
+        <v>112427.8938</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0397</v>
+        <v>0.0393</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.6955</v>
       </c>
       <c r="C2" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D2" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.3398</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E3" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="F3" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9740.279699999999</v>
+        <v>9701.375099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9740.279699999999</v>
+        <v>9701.375099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.026</v>
+        <v>-0.0299</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>12.8469</v>
       </c>
       <c r="C4" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D4" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E4" s="1">
-        <v>1479.8033</v>
+        <v>1476.848</v>
       </c>
       <c r="F4" s="1">
-        <v>778.3979</v>
+        <v>776.8438</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19010.8846</v>
+        <v>18934.9629</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19010.8846</v>
+        <v>18934.9629</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.5153</v>
+        <v>13.5424</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0369</v>
+        <v>-0.0389</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>13.129</v>
       </c>
       <c r="C5" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D5" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E5" s="1">
-        <v>2258.2012</v>
+        <v>2253.6918</v>
       </c>
       <c r="F5" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29647.9232</v>
+        <v>29529.4474</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29647.9232</v>
+        <v>29529.4474</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.2849</v>
+        <v>13.3115</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.022</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>12.716</v>
       </c>
       <c r="C6" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D6" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E6" s="1">
-        <v>3019.8738</v>
+        <v>3013.8417</v>
       </c>
       <c r="F6" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>38400.7153</v>
+        <v>38247.4594</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38400.7153</v>
+        <v>38247.4594</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.2456</v>
+        <v>13.2721</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>609.7143</v>
+        <v>608.4968</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9390.2857</v>
+        <v>-9391.503199999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0315</v>
+        <v>-0.0324</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>12.4613</v>
       </c>
       <c r="C7" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D7" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E7" s="1">
-        <v>3806.2846</v>
+        <v>3798.6786</v>
       </c>
       <c r="F7" s="1">
-        <v>851.4131</v>
+        <v>849.6109</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>47431.2546</v>
+        <v>47241.8871</v>
       </c>
       <c r="I7" s="1">
-        <v>609.7143</v>
+        <v>608.4968</v>
       </c>
       <c r="J7" s="1">
-        <v>48040.9689</v>
+        <v>47850.3838</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1362</v>
+        <v>13.1625</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10609.7143</v>
+        <v>-10608.4968</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0074</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>12.6545</v>
       </c>
       <c r="C8" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D8" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E8" s="1">
-        <v>4657.6977</v>
+        <v>4648.2896</v>
       </c>
       <c r="F8" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>58940.8361</v>
+        <v>58704.1785</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58940.8361</v>
+        <v>58704.1785</v>
       </c>
       <c r="K8" s="1">
-        <v>60609.7143</v>
+        <v>60608.4968</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0128</v>
+        <v>13.0389</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0155</v>
+        <v>0.0148</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>12.2345</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E9" s="1">
-        <v>5447.9305</v>
+        <v>5436.9393</v>
       </c>
       <c r="F9" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>66652.7053</v>
+        <v>66385.02899999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66652.7053</v>
+        <v>66385.02899999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70609.71430000001</v>
+        <v>70608.49679999999</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9608</v>
+        <v>12.9868</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1257.5784</v>
+        <v>1255.0382</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8742.4216</v>
+        <v>-8744.961799999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0332</v>
+        <v>-0.0338</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>12.1636</v>
       </c>
       <c r="C10" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D10" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E10" s="1">
-        <v>6265.2912</v>
+        <v>6252.6665</v>
       </c>
       <c r="F10" s="1">
-        <v>925.5137</v>
+        <v>923.4524</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>76208.49619999999</v>
+        <v>75902.9948</v>
       </c>
       <c r="I10" s="1">
-        <v>1257.5784</v>
+        <v>1255.0382</v>
       </c>
       <c r="J10" s="1">
-        <v>77466.07460000001</v>
+        <v>77158.033</v>
       </c>
       <c r="K10" s="1">
-        <v>80609.71430000001</v>
+        <v>80608.49679999999</v>
       </c>
       <c r="L10" s="1">
-        <v>12.8661</v>
+        <v>12.8919</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11257.5784</v>
+        <v>-11255.0382</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0106</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>11.8145</v>
       </c>
       <c r="C11" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D11" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E11" s="1">
-        <v>7190.8049</v>
+        <v>7176.119</v>
       </c>
       <c r="F11" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>84955.76459999999</v>
+        <v>84612.901</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>84955.76459999999</v>
+        <v>84612.901</v>
       </c>
       <c r="K11" s="1">
-        <v>91867.29270000001</v>
+        <v>91863.535</v>
       </c>
       <c r="L11" s="1">
-        <v>12.7757</v>
+        <v>12.8013</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0287</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>11.2352</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E12" s="1">
-        <v>8037.2224</v>
+        <v>8020.842</v>
       </c>
       <c r="F12" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>90299.80160000001</v>
+        <v>89935.2948</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>90299.80160000001</v>
+        <v>89935.2948</v>
       </c>
       <c r="K12" s="1">
-        <v>101867.2927</v>
+        <v>101863.535</v>
       </c>
       <c r="L12" s="1">
-        <v>12.6744</v>
+        <v>12.6999</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1941.5173</v>
+        <v>1937.5521</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8058.4827</v>
+        <v>-8062.4479</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.049</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.8241</v>
       </c>
       <c r="C13" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D13" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E13" s="1">
-        <v>8927.274299999999</v>
+        <v>8909.1229</v>
       </c>
       <c r="F13" s="1">
-        <v>1103.2342</v>
+        <v>1100.6613</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>96629.7101</v>
+        <v>96239.909</v>
       </c>
       <c r="I13" s="1">
-        <v>1941.5173</v>
+        <v>1937.5521</v>
       </c>
       <c r="J13" s="1">
-        <v>98571.22749999999</v>
+        <v>98177.46120000001</v>
       </c>
       <c r="K13" s="1">
-        <v>111867.2927</v>
+        <v>111863.535</v>
       </c>
       <c r="L13" s="1">
-        <v>12.531</v>
+        <v>12.5561</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11941.5173</v>
+        <v>-11937.5521</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0172</v>
+        <v>-0.0176</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>11.2543</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E14" s="1">
-        <v>10030.5085</v>
+        <v>10009.7842</v>
       </c>
       <c r="F14" s="1">
-        <v>-10030.5085</v>
+        <v>-10009.7842</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112886.3522</v>
+        <v>112427.8938</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>112886.3522</v>
+        <v>112427.8938</v>
       </c>
       <c r="K14" s="1">
-        <v>123808.81</v>
+        <v>123801.0871</v>
       </c>
       <c r="L14" s="1">
-        <v>12.3432</v>
+        <v>12.368</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112886.3522</v>
+        <v>112427.8938</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0397</v>
+        <v>0.0393</v>
       </c>
     </row>
   </sheetData>
@@ -4451,10 +4451,10 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>12.3332</v>
+        <v>12.358</v>
       </c>
       <c r="D3" s="1">
-        <v>12.3432</v>
+        <v>12.368</v>
       </c>
       <c r="E3" s="1">
-        <v>12.3432</v>
+        <v>12.368</v>
       </c>
       <c r="F3" s="1">
-        <v>12.3432</v>
+        <v>12.368</v>
       </c>
       <c r="G3" s="1">
-        <v>12.3432</v>
+        <v>12.368</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.1905</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1415</v>
+        <v>-0.1541</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1422</v>
+        <v>-0.1547</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1422</v>
+        <v>-0.1547</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1422</v>
+        <v>-0.1547</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1422</v>
+        <v>-0.1547</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0917</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0915</v>
+        <v>0.0922</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0919</v>
+        <v>0.0925</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0919</v>
+        <v>0.0925</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0919</v>
+        <v>0.0925</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0919</v>
+        <v>0.0925</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-2.299</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.7683</v>
+        <v>-1.8915</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.7683</v>
+        <v>-1.8914</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.7683</v>
+        <v>-1.8914</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.7683</v>
+        <v>-1.8914</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.7683</v>
+        <v>-1.8914</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1077</v>
+        <v>-0.1146</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1081</v>
+        <v>-0.1149</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1081</v>
+        <v>-0.1149</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1081</v>
+        <v>-0.1149</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1081</v>
+        <v>-0.1149</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3770.8781</v>
+        <v>3763.3073</v>
       </c>
       <c r="D8" s="1">
-        <v>3808.81</v>
+        <v>3801.0871</v>
       </c>
       <c r="E8" s="1">
-        <v>3808.81</v>
+        <v>3801.0871</v>
       </c>
       <c r="F8" s="1">
-        <v>3808.81</v>
+        <v>3801.0871</v>
       </c>
       <c r="G8" s="1">
-        <v>3808.81</v>
+        <v>3801.0871</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P68_KFSDIV.xlsx
+++ b/output/1Y_P68_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>4670.4335</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9093</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9083</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9083</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9083</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9083</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
